--- a/T41_DXL/T41 DXL XBee BOM.xlsx
+++ b/T41_DXL/T41 DXL XBee BOM.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Teensy3.1-Breakout-Boards\T41_DXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCCCA4-91EE-4658-A935-161E1C4FDA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6C16AB-E6E7-4E6B-B7D4-EC6F6DD760AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3645" windowWidth="27675" windowHeight="15060" xr2:uid="{CC891277-E5F0-48C0-9141-5074446F5CB1}"/>
+    <workbookView xWindow="5055" yWindow="3120" windowWidth="27675" windowHeight="15060" xr2:uid="{CC891277-E5F0-48C0-9141-5074446F5CB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="T41 Robotshop XBee V01" sheetId="2" r:id="rId1"/>
+    <sheet name="T41 DXL XBee V01" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'T41 Robotshop XBee V01'!$B$1:$G$27</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'T41 DXL XBee V01'!$B$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <t>RefDes</t>
   </si>
@@ -123,18 +124,12 @@
     <t>Qwiic Right Angle</t>
   </si>
   <si>
-    <t>L31, L32, RSSI, RX, TX</t>
-  </si>
-  <si>
     <t>LEDCHIPLED_0805</t>
   </si>
   <si>
     <t>CHIPLED_0805</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>PWR</t>
   </si>
   <si>
@@ -424,6 +419,18 @@
   </si>
   <si>
     <t>Sparkfun: 16766</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>L31,  RSSI, RX</t>
+  </si>
+  <si>
+    <t>L32, RSSI, TX</t>
   </si>
 </sst>
 </file>
@@ -553,23 +560,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -580,38 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{DB3C4B00-C663-4E50-9AF4-E842B5F4954C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8" unboundColumnsLeft="1">
-    <queryTableFields count="7">
-      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
-      <queryTableField id="1" name="RefDes" tableColumnId="1"/>
-      <queryTableField id="2" name="Name" tableColumnId="2"/>
-      <queryTableField id="3" name="Pattern" tableColumnId="3"/>
-      <queryTableField id="4" name="Value" tableColumnId="4"/>
-      <queryTableField id="5" name="Number of Pins" tableColumnId="5"/>
-      <queryTableField id="6" name="Quantity" tableColumnId="6"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFA300C9-5C53-49E3-B931-C912DED07D6F}" name="T41_Robotshop_XBee_V01" displayName="T41_Robotshop_XBee_V01" ref="A1:G33" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G33" xr:uid="{A8FD1144-0F22-4FE8-AC96-74AFF1D02EAD}"/>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{3CC7A683-A1F8-48C3-A9C6-F726C83C8328}" uniqueName="7" name="Part Numbers (Digikey)" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{B630D5BA-5E66-4F72-9A4D-C4640692D716}" uniqueName="1" name="RefDes" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2B7B28CB-CB4D-4F90-9F40-146CAC9A1E8C}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{976AE82D-1E3E-40CA-A04E-9158FF7C119E}" uniqueName="3" name="Pattern" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9FF00CF1-83AD-4101-A706-F7181984B78C}" uniqueName="4" name="Value" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{935F0640-0296-4A6C-A876-469ECDC929D6}" uniqueName="5" name="Number of Pins" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{E1148D99-B212-4C07-8C80-4D2405D7D9BD}" uniqueName="6" name="Quantity" queryTableFieldId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -911,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E4C60-124B-4C86-8F1A-C946DAD347D3}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +889,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -953,19 +912,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -976,10 +935,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -999,10 +958,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1022,7 +981,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1034,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1045,10 +1004,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1068,7 +1027,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -1091,7 +1050,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1114,7 +1073,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
@@ -1137,19 +1096,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1160,7 +1119,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -1184,60 +1143,58 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1247,67 +1204,67 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
+      <c r="A15" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
+      <c r="A16" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>69</v>
+      <c r="A17" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1315,107 +1272,109 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
         <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1425,20 +1384,18 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1449,22 +1406,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1472,22 +1429,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1495,22 +1452,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1518,22 +1475,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1541,22 +1498,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1564,19 +1521,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1587,22 +1544,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1610,19 +1567,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1633,46 +1590,66 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33">
+      <c r="F34">
         <v>4</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/T41_DXL/T41 DXL XBee BOM.xlsx
+++ b/T41_DXL/T41 DXL XBee BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Teensy3.1-Breakout-Boards\T41_DXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6C16AB-E6E7-4E6B-B7D4-EC6F6DD760AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083497CF-E2F4-489C-AEF6-A7E7A66981C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="3120" windowWidth="27675" windowHeight="15060" xr2:uid="{CC891277-E5F0-48C0-9141-5074446F5CB1}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'T41 DXL XBee V01'!$B$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,7 +429,7 @@
     <t>L31,  RSSI, RX</t>
   </si>
   <si>
-    <t>L32, RSSI, TX</t>
+    <t>L32, TX</t>
   </si>
 </sst>
 </file>
@@ -873,7 +872,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
